--- a/涌泉图书馆整理2017.4.2.xlsx
+++ b/涌泉图书馆整理2017.4.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="圣经研读" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="846">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2602,6 +2602,497 @@
   </si>
   <si>
     <t>同心同行-基督徒交友须知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-022</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--民数记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖建国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-023</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--士师记 路得记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-024</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--列王纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-025</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--以斯帖记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--箴言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-027</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--以西结书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--约珥书 阿摩司书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-029</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--马可福音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-030</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--使徒行传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--哥林多前书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-032</t>
+  </si>
+  <si>
+    <t>A-001-033</t>
+  </si>
+  <si>
+    <t>A-001-034</t>
+  </si>
+  <si>
+    <t>A-001-035</t>
+  </si>
+  <si>
+    <t>A-001-036</t>
+  </si>
+  <si>
+    <t>A-001-037</t>
+  </si>
+  <si>
+    <t>A-001-038</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--加拉太书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--以弗所书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--腓立比书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--帖撒罗尼迦前、后书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--提摩太前、后书 提多书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--歌罗西书 腓利门书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--希伯来书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-001-039</t>
+  </si>
+  <si>
+    <t>A-001-040</t>
+  </si>
+  <si>
+    <t>A-001-041</t>
+  </si>
+  <si>
+    <t>A-001-042</t>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--彼得前书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--约翰书信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--启示录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁道尔旧约圣经注释--路加福音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-030-003</t>
+  </si>
+  <si>
+    <t>B-030-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-030-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9Marks--教会成员制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-011-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-008-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识圣经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-018-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-057-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-030-007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9Marks--福音信息与个人布道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-009-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-009-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-016-002</t>
+  </si>
+  <si>
+    <t>斯托得圣经信息系列--以弗所书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-058-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-058-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-018-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查经布道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福的秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-041-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天路历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-059-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱的艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-060-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与豪猪共舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-061-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风烈火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-010-005</t>
+  </si>
+  <si>
+    <t>新教著名人物传记译丛--慕安德烈传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-018-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺克斯传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-018-002</t>
+  </si>
+  <si>
+    <t>加尔文传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-018-003</t>
+  </si>
+  <si>
+    <t>英国复兴领袖传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-019-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马礼逊回忆录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-019-002</t>
+  </si>
+  <si>
+    <t>李提摩太在中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-020-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰.牛顿传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-021-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴德生-挚爱中华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-022-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克谦传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-022-002</t>
+  </si>
+  <si>
+    <t>毕大卫传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-023-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力阻狂轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-024-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我的立场-改教先导马丁路德传记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-025-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又四十年（王明道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-026-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-014-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致年轻加尔文主义者的信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基督教与中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-027-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-028-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因爱着中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2952,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2991,28 +3482,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s" ph="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1" t="s" ph="1">
         <v>9</v>
@@ -3021,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -3029,18 +3501,18 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>717</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -3048,18 +3520,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>718</v>
       </c>
       <c r="B5" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -3067,18 +3539,18 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
@@ -3086,9 +3558,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s" ph="1">
         <v>8</v>
@@ -3097,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
@@ -3107,7 +3579,7 @@
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
         <v>8</v>
@@ -3116,36 +3588,36 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>722</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>723</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>722</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s" ph="1">
         <v>8</v>
@@ -3154,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>35</v>
@@ -3164,16 +3636,16 @@
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>724</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
@@ -3183,7 +3655,7 @@
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
         <v>8</v>
@@ -3192,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -3202,16 +3674,16 @@
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>727</v>
       </c>
       <c r="B13" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -3221,7 +3693,7 @@
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
         <v>8</v>
@@ -3230,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
@@ -3240,16 +3712,16 @@
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>730</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -3259,7 +3731,7 @@
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
         <v>8</v>
@@ -3268,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>35</v>
@@ -3278,16 +3750,16 @@
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>731</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -3297,7 +3769,7 @@
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
         <v>8</v>
@@ -3306,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -3316,16 +3788,16 @@
     </row>
     <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>732</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>35</v>
@@ -3335,7 +3807,7 @@
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
         <v>8</v>
@@ -3344,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>35</v>
@@ -3354,16 +3826,16 @@
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>735</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>35</v>
@@ -3373,7 +3845,7 @@
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
         <v>8</v>
@@ -3382,7 +3854,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
@@ -3392,24 +3864,26 @@
     </row>
     <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>736</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
         <v>8</v>
@@ -3418,32 +3892,36 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>737</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s" ph="1">
         <v>8</v>
@@ -3452,32 +3930,36 @@
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>740</v>
       </c>
       <c r="B27" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s" ph="1">
         <v>8</v>
@@ -3486,32 +3968,36 @@
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>741</v>
       </c>
       <c r="B29" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s" ph="1">
         <v>8</v>
@@ -3520,32 +4006,36 @@
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>742</v>
       </c>
       <c r="B31" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s" ph="1">
         <v>8</v>
@@ -3554,32 +4044,36 @@
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>743</v>
       </c>
       <c r="B33" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s" ph="1">
         <v>8</v>
@@ -3588,32 +4082,36 @@
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>746</v>
       </c>
       <c r="B35" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s" ph="1">
         <v>8</v>
@@ -3622,32 +4120,36 @@
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>747</v>
       </c>
       <c r="B37" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s" ph="1">
         <v>8</v>
@@ -3656,32 +4158,36 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>750</v>
       </c>
       <c r="B39" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s" ph="1">
         <v>8</v>
@@ -3690,32 +4196,36 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>751</v>
       </c>
       <c r="B41" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s" ph="1">
         <v>8</v>
@@ -3724,423 +4234,453 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>753</v>
       </c>
       <c r="B43" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>752</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>720</v>
       </c>
       <c r="B44" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>725</v>
       </c>
       <c r="B45" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>728</v>
       </c>
       <c r="B46" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>733</v>
       </c>
       <c r="B47" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>738</v>
       </c>
       <c r="B48" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>744</v>
       </c>
       <c r="B49" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>748</v>
       </c>
       <c r="B50" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>749</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>754</v>
       </c>
       <c r="B51" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>755</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>756</v>
       </c>
       <c r="B52" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>757</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>758</v>
       </c>
       <c r="B53" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>760</v>
       </c>
       <c r="B54" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>767</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>761</v>
       </c>
       <c r="B55" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>762</v>
       </c>
       <c r="B56" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>763</v>
       </c>
       <c r="B57" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>764</v>
       </c>
       <c r="B58" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>765</v>
       </c>
       <c r="B59" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>772</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>766</v>
       </c>
       <c r="B60" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>125</v>
+        <v>774</v>
       </c>
       <c r="B61" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>775</v>
       </c>
       <c r="B62" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>776</v>
       </c>
       <c r="B63" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>777</v>
       </c>
       <c r="B64" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="1" t="s" ph="1">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" ph="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s" ph="1">
-        <v>8</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" ph="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s" ph="1">
         <v>8</v>
@@ -4149,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -4157,7 +4697,7 @@
     </row>
     <row r="68" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s" ph="1">
         <v>8</v>
@@ -4166,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -4174,7 +4714,7 @@
     </row>
     <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1" t="s" ph="1">
         <v>8</v>
@@ -4183,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -4191,7 +4731,7 @@
     </row>
     <row r="70" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s" ph="1">
         <v>8</v>
@@ -4200,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4208,7 +4748,7 @@
     </row>
     <row r="71" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s" ph="1">
         <v>8</v>
@@ -4217,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -4225,7 +4765,7 @@
     </row>
     <row r="72" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s" ph="1">
         <v>8</v>
@@ -4234,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -4242,7 +4782,7 @@
     </row>
     <row r="73" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s" ph="1">
         <v>8</v>
@@ -4251,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -4259,7 +4799,7 @@
     </row>
     <row r="74" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s" ph="1">
         <v>8</v>
@@ -4268,7 +4808,7 @@
         <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -4276,7 +4816,7 @@
     </row>
     <row r="75" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s" ph="1">
         <v>8</v>
@@ -4285,7 +4825,7 @@
         <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4293,7 +4833,7 @@
     </row>
     <row r="76" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s" ph="1">
         <v>8</v>
@@ -4302,7 +4842,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4310,7 +4850,7 @@
     </row>
     <row r="77" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s" ph="1">
         <v>8</v>
@@ -4319,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4327,7 +4867,7 @@
     </row>
     <row r="78" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s" ph="1">
         <v>8</v>
@@ -4336,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4344,7 +4884,7 @@
     </row>
     <row r="79" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s" ph="1">
         <v>8</v>
@@ -4353,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -4361,7 +4901,7 @@
     </row>
     <row r="80" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s" ph="1">
         <v>8</v>
@@ -4370,7 +4910,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -4378,7 +4918,7 @@
     </row>
     <row r="81" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s" ph="1">
         <v>8</v>
@@ -4387,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -4395,7 +4935,7 @@
     </row>
     <row r="82" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s" ph="1">
         <v>8</v>
@@ -4404,7 +4944,7 @@
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4412,7 +4952,7 @@
     </row>
     <row r="83" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s" ph="1">
         <v>8</v>
@@ -4421,7 +4961,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -4429,16 +4969,16 @@
     </row>
     <row r="84" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s" ph="1">
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -4446,7 +4986,7 @@
     </row>
     <row r="85" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s" ph="1">
         <v>8</v>
@@ -4455,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -4463,7 +5003,7 @@
     </row>
     <row r="86" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s" ph="1">
         <v>8</v>
@@ -4472,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -4480,7 +5020,7 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s" ph="1">
         <v>8</v>
@@ -4489,7 +5029,7 @@
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -4497,7 +5037,7 @@
     </row>
     <row r="88" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s" ph="1">
         <v>8</v>
@@ -4506,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -4514,7 +5054,7 @@
     </row>
     <row r="89" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s" ph="1">
         <v>8</v>
@@ -4523,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4531,16 +5071,16 @@
     </row>
     <row r="90" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -4548,7 +5088,7 @@
     </row>
     <row r="91" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1" t="s" ph="1">
         <v>8</v>
@@ -4557,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4565,16 +5105,16 @@
     </row>
     <row r="92" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -4582,7 +5122,7 @@
     </row>
     <row r="93" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1" t="s" ph="1">
         <v>8</v>
@@ -4591,7 +5131,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4599,7 +5139,7 @@
     </row>
     <row r="94" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1" t="s" ph="1">
         <v>8</v>
@@ -4608,7 +5148,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -4616,7 +5156,7 @@
     </row>
     <row r="95" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="s" ph="1">
         <v>8</v>
@@ -4625,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -4633,7 +5173,7 @@
     </row>
     <row r="96" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1" t="s" ph="1">
         <v>8</v>
@@ -4642,7 +5182,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4650,7 +5190,7 @@
     </row>
     <row r="97" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1" t="s" ph="1">
         <v>8</v>
@@ -4659,7 +5199,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -4667,7 +5207,7 @@
     </row>
     <row r="98" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s" ph="1">
         <v>8</v>
@@ -4676,7 +5216,7 @@
         <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4684,7 +5224,7 @@
     </row>
     <row r="99" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s" ph="1">
         <v>8</v>
@@ -4693,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -4701,16 +5241,16 @@
     </row>
     <row r="100" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="B100" s="1" t="s" ph="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4718,16 +5258,16 @@
     </row>
     <row r="101" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="B101" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -4735,24 +5275,24 @@
     </row>
     <row r="102" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="B102" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>210</v>
+      <c r="A103" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B103" s="1" t="s" ph="1">
         <v>8</v>
@@ -4761,15 +5301,15 @@
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>213</v>
+      <c r="A104" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B104" s="1" t="s" ph="1">
         <v>8</v>
@@ -4778,15 +5318,15 @@
         <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>215</v>
+      <c r="A105" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B105" s="1" t="s" ph="1">
         <v>8</v>
@@ -4795,15 +5335,15 @@
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>216</v>
+      <c r="A106" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B106" s="1" t="s" ph="1">
         <v>8</v>
@@ -4812,15 +5352,15 @@
         <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>218</v>
+      <c r="A107" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s" ph="1">
         <v>8</v>
@@ -4829,15 +5369,15 @@
         <v>10</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>220</v>
+      <c r="A108" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B108" s="1" t="s" ph="1">
         <v>8</v>
@@ -4846,15 +5386,15 @@
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>224</v>
+      <c r="A109" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B109" s="1" t="s" ph="1">
         <v>8</v>
@@ -4863,15 +5403,15 @@
         <v>10</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>227</v>
+      <c r="A110" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B110" s="1" t="s" ph="1">
         <v>8</v>
@@ -4880,15 +5420,15 @@
         <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>228</v>
+      <c r="A111" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B111" s="1" t="s" ph="1">
         <v>8</v>
@@ -4897,15 +5437,15 @@
         <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>231</v>
+      <c r="A112" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B112" s="1" t="s" ph="1">
         <v>8</v>
@@ -4914,15 +5454,15 @@
         <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>233</v>
+      <c r="A113" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B113" s="1" t="s" ph="1">
         <v>8</v>
@@ -4931,474 +5471,850 @@
         <v>10</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="1" ph="1"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="1" ph="1"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
     <row r="116" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="1" ph="1"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="1" ph="1"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="1" ph="1"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+    <row r="119" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+    <row r="120" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+    <row r="121" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+    <row r="122" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+    <row r="123" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+    <row r="124" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+    <row r="125" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+    <row r="126" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+    <row r="127" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+    <row r="128" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+    <row r="129" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+    <row r="130" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B130" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+    <row r="131" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+    <row r="132" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+    <row r="133" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+    <row r="134" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" s="1" t="s" ph="1">
+        <v>184</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+    <row r="135" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B135" s="1" t="s" ph="1">
+        <v>26</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+    <row r="136" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+    <row r="137" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="1" t="s" ph="1">
+        <v>184</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+    <row r="138" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B138" s="1" t="s" ph="1">
+        <v>26</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+    <row r="139" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+    <row r="140" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+    <row r="141" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B141" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+    <row r="142" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+    <row r="143" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+    <row r="144" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+    <row r="145" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+    <row r="146" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" s="1" t="s" ph="1">
+        <v>9</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+    <row r="147" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="1" t="s" ph="1">
+        <v>184</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+    <row r="148" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+    <row r="149" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+    <row r="150" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+    <row r="151" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+    <row r="152" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+    <row r="153" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+    <row r="154" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+    <row r="155" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B155" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>797</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+    <row r="156" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+    <row r="157" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+    <row r="158" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+    <row r="159" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+    <row r="160" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B160" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="1" ph="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="1" ph="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="1" ph="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="1" ph="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="1" ph="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -7834,6 +8750,429 @@
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="2"/>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="2"/>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="2"/>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="2"/>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
+      <c r="B455" s="2"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="2"/>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="2"/>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="2"/>
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="2"/>
+      <c r="B463" s="2"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="2"/>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="2"/>
+      <c r="B466" s="2"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="2"/>
+      <c r="B467" s="2"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="2"/>
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
+      <c r="B473" s="2"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
+      <c r="B475" s="2"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
+      <c r="B476" s="2"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
+      <c r="B478" s="2"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
+      <c r="B481" s="2"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+      <c r="B482" s="2"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7844,10 +9183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8452,16 +9791,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>572</v>
+        <v>789</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,7 +9808,7 @@
         <v>572</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>614</v>
@@ -8483,7 +9822,7 @@
         <v>572</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>614</v>
@@ -8494,21 +9833,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
@@ -8517,7 +9856,7 @@
         <v>614</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8525,7 +9864,7 @@
         <v>574</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>614</v>
@@ -8539,7 +9878,7 @@
         <v>574</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>614</v>
@@ -8553,7 +9892,7 @@
         <v>574</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>614</v>
@@ -8564,21 +9903,21 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
@@ -8587,12 +9926,12 @@
         <v>614</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -8601,12 +9940,12 @@
         <v>614</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -8615,12 +9954,12 @@
         <v>614</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -8629,12 +9968,12 @@
         <v>614</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
@@ -8643,12 +9982,12 @@
         <v>614</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
@@ -8657,7 +9996,7 @@
         <v>614</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,7 +10004,7 @@
         <v>581</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>614</v>
@@ -8679,7 +10018,7 @@
         <v>581</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>614</v>
@@ -8690,21 +10029,21 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
@@ -8713,12 +10052,12 @@
         <v>614</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
@@ -8727,7 +10066,7 @@
         <v>614</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -8735,7 +10074,7 @@
         <v>584</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>614</v>
@@ -8746,21 +10085,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>8</v>
@@ -8769,12 +10108,12 @@
         <v>614</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -8783,12 +10122,12 @@
         <v>614</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
@@ -8797,12 +10136,12 @@
         <v>614</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>420</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>8</v>
@@ -8811,12 +10150,12 @@
         <v>614</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>663</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>8</v>
@@ -8825,12 +10164,12 @@
         <v>614</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
@@ -8839,12 +10178,12 @@
         <v>614</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
@@ -8853,12 +10192,12 @@
         <v>614</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
@@ -8867,12 +10206,12 @@
         <v>614</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
@@ -8881,12 +10220,12 @@
         <v>614</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
@@ -8895,12 +10234,12 @@
         <v>614</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
@@ -8909,12 +10248,12 @@
         <v>614</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
@@ -8923,12 +10262,12 @@
         <v>614</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>8</v>
@@ -8937,12 +10276,12 @@
         <v>614</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
@@ -8951,12 +10290,12 @@
         <v>614</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>8</v>
@@ -8965,12 +10304,12 @@
         <v>614</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>8</v>
@@ -8979,12 +10318,12 @@
         <v>614</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>8</v>
@@ -8993,12 +10332,12 @@
         <v>614</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>8</v>
@@ -9007,12 +10346,12 @@
         <v>614</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>8</v>
@@ -9021,12 +10360,12 @@
         <v>614</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>8</v>
@@ -9035,12 +10374,12 @@
         <v>614</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>8</v>
@@ -9049,12 +10388,12 @@
         <v>614</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>8</v>
@@ -9063,12 +10402,12 @@
         <v>614</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>8</v>
@@ -9077,12 +10416,12 @@
         <v>614</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
@@ -9091,12 +10430,12 @@
         <v>614</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>8</v>
@@ -9105,12 +10444,12 @@
         <v>614</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
@@ -9119,12 +10458,12 @@
         <v>614</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>8</v>
@@ -9133,12 +10472,12 @@
         <v>614</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>8</v>
@@ -9147,12 +10486,12 @@
         <v>614</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>699</v>
+        <v>613</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
@@ -9161,7 +10500,147 @@
         <v>614</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -9172,10 +10651,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9492,16 +10971,16 @@
     </row>
     <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>260</v>
+        <v>787</v>
       </c>
       <c r="B14" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>259</v>
+        <v>788</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -9516,7 +10995,7 @@
     </row>
     <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
         <v>8</v>
@@ -9525,7 +11004,7 @@
         <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9540,7 +11019,7 @@
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
         <v>8</v>
@@ -9549,7 +11028,7 @@
         <v>235</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -9564,7 +11043,7 @@
     </row>
     <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
         <v>8</v>
@@ -9573,7 +11052,7 @@
         <v>235</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9588,7 +11067,7 @@
     </row>
     <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="1" t="s" ph="1">
         <v>8</v>
@@ -9597,7 +11076,7 @@
         <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -9612,10 +11091,10 @@
     </row>
     <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>235</v>
@@ -9636,16 +11115,16 @@
     </row>
     <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -9663,7 +11142,7 @@
         <v>270</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>235</v>
@@ -9671,19 +11150,29 @@
       <c r="D21" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" ph="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -9691,7 +11180,7 @@
         <v>272</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>235</v>
@@ -9702,21 +11191,21 @@
     </row>
     <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
         <v>8</v>
@@ -9725,7 +11214,7 @@
         <v>235</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.25">
@@ -9733,7 +11222,7 @@
         <v>276</v>
       </c>
       <c r="B26" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>235</v>
@@ -9744,21 +11233,21 @@
     </row>
     <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B27" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B28" s="1" t="s" ph="1">
         <v>8</v>
@@ -9767,12 +11256,12 @@
         <v>235</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B29" s="1" t="s" ph="1">
         <v>8</v>
@@ -9781,12 +11270,12 @@
         <v>235</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" s="1" t="s" ph="1">
         <v>8</v>
@@ -9795,12 +11284,12 @@
         <v>235</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B31" s="1" t="s" ph="1">
         <v>8</v>
@@ -9809,12 +11298,12 @@
         <v>235</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B32" s="1" t="s" ph="1">
         <v>8</v>
@@ -9823,26 +11312,26 @@
         <v>235</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>291</v>
+        <v>786</v>
       </c>
       <c r="B33" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B34" s="1" t="s" ph="1">
         <v>8</v>
@@ -9851,12 +11340,12 @@
         <v>235</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" s="1" t="s" ph="1">
         <v>8</v>
@@ -9865,12 +11354,12 @@
         <v>235</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B36" s="1" t="s" ph="1">
         <v>8</v>
@@ -9879,12 +11368,12 @@
         <v>235</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B37" s="1" t="s" ph="1">
         <v>8</v>
@@ -9893,12 +11382,12 @@
         <v>235</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B38" s="1" t="s" ph="1">
         <v>8</v>
@@ -9907,12 +11396,12 @@
         <v>235</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B39" s="1" t="s" ph="1">
         <v>8</v>
@@ -9921,12 +11410,12 @@
         <v>235</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B40" s="1" t="s" ph="1">
         <v>8</v>
@@ -9935,12 +11424,12 @@
         <v>235</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B41" s="1" t="s" ph="1">
         <v>8</v>
@@ -9949,12 +11438,12 @@
         <v>235</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s" ph="1">
         <v>8</v>
@@ -9963,12 +11452,12 @@
         <v>235</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B43" s="1" t="s" ph="1">
         <v>8</v>
@@ -9977,12 +11466,12 @@
         <v>235</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B44" s="1" t="s" ph="1">
         <v>8</v>
@@ -9991,12 +11480,12 @@
         <v>235</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B45" s="1" t="s" ph="1">
         <v>8</v>
@@ -10005,12 +11494,12 @@
         <v>235</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B46" s="1" t="s" ph="1">
         <v>8</v>
@@ -10019,12 +11508,12 @@
         <v>235</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B47" s="1" t="s" ph="1">
         <v>8</v>
@@ -10033,12 +11522,12 @@
         <v>235</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B48" s="1" t="s" ph="1">
         <v>8</v>
@@ -10047,12 +11536,12 @@
         <v>235</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B49" s="1" t="s" ph="1">
         <v>8</v>
@@ -10061,12 +11550,12 @@
         <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B50" s="1" t="s" ph="1">
         <v>8</v>
@@ -10075,12 +11564,12 @@
         <v>235</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B51" s="1" t="s" ph="1">
         <v>8</v>
@@ -10089,12 +11578,12 @@
         <v>235</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B52" s="1" t="s" ph="1">
         <v>8</v>
@@ -10103,12 +11592,12 @@
         <v>235</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B53" s="1" t="s" ph="1">
         <v>8</v>
@@ -10117,12 +11606,12 @@
         <v>235</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B54" s="1" t="s" ph="1">
         <v>8</v>
@@ -10131,12 +11620,12 @@
         <v>235</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B55" s="1" t="s" ph="1">
         <v>8</v>
@@ -10145,21 +11634,21 @@
         <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B56" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -10167,7 +11656,7 @@
         <v>335</v>
       </c>
       <c r="B57" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>235</v>
@@ -10178,35 +11667,35 @@
     </row>
     <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B58" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B59" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B60" s="1" t="s" ph="1">
         <v>8</v>
@@ -10215,12 +11704,12 @@
         <v>235</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B61" s="1" t="s" ph="1">
         <v>184</v>
@@ -10229,7 +11718,7 @@
         <v>235</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -10237,7 +11726,7 @@
         <v>339</v>
       </c>
       <c r="B62" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>235</v>
@@ -10248,108 +11737,108 @@
     </row>
     <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B63" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>340</v>
+        <v>783</v>
       </c>
       <c r="B64" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>342</v>
+        <v>784</v>
       </c>
       <c r="B65" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>346</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>342</v>
+        <v>784</v>
       </c>
       <c r="B66" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>705</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>342</v>
+        <v>782</v>
       </c>
       <c r="B67" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>706</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B68" s="1" t="s" ph="1">
-        <v>343</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B69" s="1" t="s" ph="1">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B70" s="1" t="s" ph="1">
-        <v>345</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>235</v>
@@ -10360,100 +11849,100 @@
     </row>
     <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B71" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B72" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B73" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B75" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B76" s="1" t="s" ph="1">
-        <v>343</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B77" s="1" t="s" ph="1">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -10461,7 +11950,7 @@
         <v>350</v>
       </c>
       <c r="B78" s="1" t="s" ph="1">
-        <v>345</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>235</v>
@@ -10472,91 +11961,91 @@
     </row>
     <row r="79" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B79" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B80" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B81" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B82" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B83" s="1" t="s" ph="1">
-        <v>698</v>
+        <v>345</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>361</v>
+        <v>792</v>
       </c>
       <c r="B84" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>707</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>362</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B85" s="1" t="s" ph="1">
         <v>8</v>
@@ -10565,26 +12054,26 @@
         <v>235</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B86" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B87" s="1" t="s" ph="1">
         <v>8</v>
@@ -10593,54 +12082,54 @@
         <v>235</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B88" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B89" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>698</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B90" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s" ph="1">
         <v>8</v>
@@ -10649,12 +12138,12 @@
         <v>235</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B92" s="1" t="s" ph="1">
         <v>184</v>
@@ -10663,40 +12152,40 @@
         <v>235</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B93" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B94" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B95" s="1" t="s" ph="1">
         <v>8</v>
@@ -10705,26 +12194,26 @@
         <v>235</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B96" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B97" s="1" t="s" ph="1">
         <v>8</v>
@@ -10733,54 +12222,54 @@
         <v>235</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B98" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B99" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B100" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B101" s="1" t="s" ph="1">
         <v>8</v>
@@ -10789,12 +12278,12 @@
         <v>235</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B102" s="1" t="s" ph="1">
         <v>8</v>
@@ -10803,40 +12292,40 @@
         <v>235</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B103" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B104" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B105" s="1" t="s" ph="1">
         <v>8</v>
@@ -10845,111 +12334,186 @@
         <v>235</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>701</v>
+        <v>382</v>
       </c>
       <c r="B106" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>702</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>701</v>
+        <v>383</v>
       </c>
       <c r="B107" s="1" t="s" ph="1">
-        <v>698</v>
+        <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B108" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="1" t="s" ph="1">
+        <v>184</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B110" s="1" t="s" ph="1">
+        <v>209</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B111" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B112" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" ph="1"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" ph="1"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" ph="1"/>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" ph="1"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" ph="1"/>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" ph="1"/>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" ph="1"/>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B113" s="1" t="s" ph="1">
+        <v>698</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B114" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
       <c r="B115" s="1" ph="1"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B116" s="1" ph="1"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B117" s="1" ph="1"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B118" s="1" ph="1"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B119" s="1" ph="1"/>
-    </row>
-    <row r="120" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B120" s="1" ph="1"/>
-    </row>
-    <row r="121" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B121" s="1" ph="1"/>
-    </row>
-    <row r="122" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B122" s="1" ph="1"/>
-    </row>
-    <row r="123" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B123" s="1" ph="1"/>
-    </row>
-    <row r="124" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B124" s="1" ph="1"/>
-    </row>
-    <row r="125" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B125" s="1" ph="1"/>
     </row>
-    <row r="126" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B126" s="1" ph="1"/>
     </row>
-    <row r="127" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B127" s="1" ph="1"/>
     </row>
-    <row r="128" spans="2:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="B128" s="1" ph="1"/>
     </row>
     <row r="129" spans="2:2" ht="24" x14ac:dyDescent="0.25">
@@ -11014,6 +12578,24 @@
     </row>
     <row r="149" spans="2:2" ht="24" x14ac:dyDescent="0.25">
       <c r="B149" s="1" ph="1"/>
+    </row>
+    <row r="150" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" ph="1"/>
+    </row>
+    <row r="151" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" ph="1"/>
+    </row>
+    <row r="152" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" ph="1"/>
+    </row>
+    <row r="153" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" ph="1"/>
+    </row>
+    <row r="154" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" ph="1"/>
+    </row>
+    <row r="155" spans="2:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11023,10 +12605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11329,21 +12911,21 @@
     </row>
     <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>419</v>
+        <v>813</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>719</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>418</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B21" s="1" t="s" ph="1">
         <v>8</v>
@@ -11352,12 +12934,12 @@
         <v>389</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
         <v>8</v>
@@ -11366,12 +12948,12 @@
         <v>389</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
         <v>8</v>
@@ -11380,12 +12962,12 @@
         <v>389</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B24" s="1" t="s" ph="1">
         <v>8</v>
@@ -11394,26 +12976,26 @@
         <v>389</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>428</v>
+        <v>840</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>752</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B26" s="1" t="s" ph="1">
         <v>8</v>
@@ -11422,26 +13004,26 @@
         <v>389</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B27" s="1" t="s" ph="1">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B28" s="1" t="s" ph="1">
         <v>8</v>
@@ -11450,12 +13032,12 @@
         <v>389</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B29" s="1" t="s" ph="1">
         <v>8</v>
@@ -11464,12 +13046,12 @@
         <v>389</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B30" s="1" t="s" ph="1">
         <v>8</v>
@@ -11478,12 +13060,12 @@
         <v>389</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B31" s="1" t="s" ph="1">
         <v>8</v>
@@ -11492,12 +13074,12 @@
         <v>389</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B32" s="1" t="s" ph="1">
         <v>8</v>
@@ -11506,12 +13088,12 @@
         <v>389</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B33" s="1" t="s" ph="1">
         <v>8</v>
@@ -11520,12 +13102,12 @@
         <v>389</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B34" s="1" t="s" ph="1">
         <v>8</v>
@@ -11534,12 +13116,12 @@
         <v>389</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B35" s="1" t="s" ph="1">
         <v>8</v>
@@ -11548,12 +13130,12 @@
         <v>389</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B36" s="1" t="s" ph="1">
         <v>8</v>
@@ -11562,12 +13144,12 @@
         <v>389</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B37" s="1" t="s" ph="1">
         <v>8</v>
@@ -11576,12 +13158,12 @@
         <v>389</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B38" s="1" t="s" ph="1">
         <v>8</v>
@@ -11590,12 +13172,12 @@
         <v>389</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B39" s="1" t="s" ph="1">
         <v>8</v>
@@ -11604,12 +13186,12 @@
         <v>389</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B40" s="1" t="s" ph="1">
         <v>8</v>
@@ -11618,12 +13200,12 @@
         <v>389</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B41" s="1" t="s" ph="1">
         <v>8</v>
@@ -11632,12 +13214,12 @@
         <v>389</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B42" s="1" t="s" ph="1">
         <v>8</v>
@@ -11646,12 +13228,12 @@
         <v>389</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B43" s="1" t="s" ph="1">
         <v>8</v>
@@ -11660,12 +13242,12 @@
         <v>389</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B44" s="1" t="s" ph="1">
         <v>8</v>
@@ -11674,12 +13256,12 @@
         <v>389</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B45" s="1" t="s" ph="1">
         <v>8</v>
@@ -11688,12 +13270,12 @@
         <v>389</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B46" s="1" t="s" ph="1">
         <v>8</v>
@@ -11702,12 +13284,12 @@
         <v>389</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B47" s="1" t="s" ph="1">
         <v>8</v>
@@ -11716,12 +13298,12 @@
         <v>389</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B48" s="1" t="s" ph="1">
         <v>8</v>
@@ -11730,12 +13312,12 @@
         <v>389</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B49" s="1" t="s" ph="1">
         <v>8</v>
@@ -11744,12 +13326,12 @@
         <v>389</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B50" s="1" t="s" ph="1">
         <v>8</v>
@@ -11758,12 +13340,12 @@
         <v>389</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B51" s="1" t="s" ph="1">
         <v>8</v>
@@ -11772,12 +13354,12 @@
         <v>389</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B52" s="1" t="s" ph="1">
         <v>8</v>
@@ -11786,12 +13368,12 @@
         <v>389</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B53" s="1" t="s" ph="1">
         <v>8</v>
@@ -11800,12 +13382,12 @@
         <v>389</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>694</v>
+        <v>476</v>
       </c>
       <c r="B54" s="1" t="s" ph="1">
         <v>8</v>
@@ -11814,12 +13396,12 @@
         <v>389</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>695</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>696</v>
+        <v>477</v>
       </c>
       <c r="B55" s="1" t="s" ph="1">
         <v>8</v>
@@ -11828,73 +13410,269 @@
         <v>389</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B56" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B57" s="1" t="s" ph="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" ph="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" ph="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B58" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B59" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B60" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B61" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B62" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B63" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B64" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B65" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B66" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B67" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B68" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B69" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B70" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B71" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B72" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B73" s="1" t="s" ph="1">
+        <v>25</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11906,8 +13684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11950,7 +13728,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>486</v>
@@ -11967,7 +13745,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>487</v>
@@ -11984,7 +13762,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>490</v>
@@ -12001,7 +13779,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>491</v>
@@ -12018,7 +13796,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>494</v>
@@ -12032,7 +13810,7 @@
         <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>494</v>
@@ -12046,7 +13824,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>496</v>
@@ -12060,7 +13838,7 @@
         <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>496</v>
@@ -12074,7 +13852,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>497</v>
@@ -12088,7 +13866,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>499</v>
@@ -12102,7 +13880,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>501</v>
@@ -12116,7 +13894,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>503</v>
@@ -12130,7 +13908,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>508</v>
@@ -12144,7 +13922,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>505</v>
@@ -12158,7 +13936,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>510</v>
@@ -12172,7 +13950,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>512</v>
@@ -12186,7 +13964,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>513</v>
@@ -12200,7 +13978,7 @@
         <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>513</v>
@@ -12214,7 +13992,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>515</v>
@@ -12228,7 +14006,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>518</v>
@@ -12242,16 +14020,25 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" ph="1"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B23" s="1" t="s" ph="1">
+        <v>719</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -12407,8 +14194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
